--- a/data/trans_dic/P36BPD07_R-Clase-trans_dic.xlsx
+++ b/data/trans_dic/P36BPD07_R-Clase-trans_dic.xlsx
@@ -609,22 +609,22 @@
         </is>
       </c>
       <c r="C4" s="5" t="n">
-        <v>0.9051599227826167</v>
+        <v>0.0948400772173833</v>
       </c>
       <c r="D4" s="5" t="n">
-        <v>0.7902766931187907</v>
+        <v>0.2097233068812094</v>
       </c>
       <c r="E4" s="5" t="n">
-        <v>0.8923779160302192</v>
+        <v>0.1076220839697808</v>
       </c>
       <c r="F4" s="5" t="n">
-        <v>0.8397100717102303</v>
+        <v>0.1602899282897697</v>
       </c>
       <c r="G4" s="5" t="n">
-        <v>0.8994251649787078</v>
+        <v>0.1005748350212922</v>
       </c>
       <c r="H4" s="5" t="n">
-        <v>0.8134611084315011</v>
+        <v>0.186538891568499</v>
       </c>
     </row>
     <row r="5">
@@ -635,22 +635,22 @@
         </is>
       </c>
       <c r="C5" s="5" t="n">
-        <v>0.8719020581091144</v>
+        <v>0.07061203610083817</v>
       </c>
       <c r="D5" s="5" t="n">
-        <v>0.7525367710455718</v>
+        <v>0.1763197705304865</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>0.8571987323802085</v>
+        <v>0.07595916716836472</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>0.8083287965380792</v>
+        <v>0.1326817213220112</v>
       </c>
       <c r="G5" s="5" t="n">
-        <v>0.8778629120761576</v>
+        <v>0.08158209769937645</v>
       </c>
       <c r="H5" s="5" t="n">
-        <v>0.7886010312466482</v>
+        <v>0.1637614445848836</v>
       </c>
     </row>
     <row r="6">
@@ -661,22 +661,22 @@
         </is>
       </c>
       <c r="C6" s="5" t="n">
-        <v>0.9293879638991618</v>
+        <v>0.1280979418908854</v>
       </c>
       <c r="D6" s="5" t="n">
-        <v>0.8236802294695139</v>
+        <v>0.2474632289544282</v>
       </c>
       <c r="E6" s="5" t="n">
-        <v>0.9240408328316353</v>
+        <v>0.1428012676197916</v>
       </c>
       <c r="F6" s="5" t="n">
-        <v>0.8673182786779888</v>
+        <v>0.1916712034619208</v>
       </c>
       <c r="G6" s="5" t="n">
-        <v>0.9184179023006235</v>
+        <v>0.1221370879238423</v>
       </c>
       <c r="H6" s="5" t="n">
-        <v>0.8362385554151165</v>
+        <v>0.211398968753352</v>
       </c>
     </row>
     <row r="7">
@@ -691,22 +691,22 @@
         </is>
       </c>
       <c r="C7" s="5" t="n">
-        <v>0.8781914711476784</v>
+        <v>0.1218085288523216</v>
       </c>
       <c r="D7" s="5" t="n">
-        <v>0.7431780084988214</v>
+        <v>0.2568219915011787</v>
       </c>
       <c r="E7" s="5" t="n">
-        <v>0.8623717543871735</v>
+        <v>0.1376282456128265</v>
       </c>
       <c r="F7" s="5" t="n">
-        <v>0.7877119946730098</v>
+        <v>0.2122880053269901</v>
       </c>
       <c r="G7" s="5" t="n">
-        <v>0.8703249363860227</v>
+        <v>0.1296750636139773</v>
       </c>
       <c r="H7" s="5" t="n">
-        <v>0.7639692415074142</v>
+        <v>0.2360307584925859</v>
       </c>
     </row>
     <row r="8">
@@ -717,22 +717,22 @@
         </is>
       </c>
       <c r="C8" s="5" t="n">
-        <v>0.8403956665811535</v>
+        <v>0.09197781619642026</v>
       </c>
       <c r="D8" s="5" t="n">
-        <v>0.6982729452377352</v>
+        <v>0.2177087552863247</v>
       </c>
       <c r="E8" s="5" t="n">
-        <v>0.8223262957075764</v>
+        <v>0.107486795151628</v>
       </c>
       <c r="F8" s="5" t="n">
-        <v>0.7469566207189667</v>
+        <v>0.1751351921293536</v>
       </c>
       <c r="G8" s="5" t="n">
-        <v>0.8438230943318886</v>
+        <v>0.1054606956792465</v>
       </c>
       <c r="H8" s="5" t="n">
-        <v>0.7354341902359534</v>
+        <v>0.2092888903070425</v>
       </c>
     </row>
     <row r="9">
@@ -743,22 +743,22 @@
         </is>
       </c>
       <c r="C9" s="5" t="n">
-        <v>0.9080221838035795</v>
+        <v>0.1596043334188462</v>
       </c>
       <c r="D9" s="5" t="n">
-        <v>0.7822912447136752</v>
+        <v>0.3017270547622648</v>
       </c>
       <c r="E9" s="5" t="n">
-        <v>0.8925132048483719</v>
+        <v>0.1776737042924236</v>
       </c>
       <c r="F9" s="5" t="n">
-        <v>0.8248648078706465</v>
+        <v>0.2530433792810332</v>
       </c>
       <c r="G9" s="5" t="n">
-        <v>0.8945393043207535</v>
+        <v>0.1561769056681113</v>
       </c>
       <c r="H9" s="5" t="n">
-        <v>0.7907111096929575</v>
+        <v>0.2645658097640465</v>
       </c>
     </row>
     <row r="10">
@@ -773,22 +773,22 @@
         </is>
       </c>
       <c r="C10" s="5" t="n">
-        <v>0.8583714269681706</v>
+        <v>0.1416285730318294</v>
       </c>
       <c r="D10" s="5" t="n">
-        <v>0.703464520104401</v>
+        <v>0.2965354798955992</v>
       </c>
       <c r="E10" s="5" t="n">
-        <v>0.8649096196656386</v>
+        <v>0.1350903803343614</v>
       </c>
       <c r="F10" s="5" t="n">
-        <v>0.7742332503594281</v>
+        <v>0.2257667496405719</v>
       </c>
       <c r="G10" s="5" t="n">
-        <v>0.859965249991707</v>
+        <v>0.140034750008293</v>
       </c>
       <c r="H10" s="5" t="n">
-        <v>0.7236226119409954</v>
+        <v>0.2763773880590046</v>
       </c>
     </row>
     <row r="11">
@@ -799,22 +799,22 @@
         </is>
       </c>
       <c r="C11" s="5" t="n">
-        <v>0.8224387716018353</v>
+        <v>0.1137963690719839</v>
       </c>
       <c r="D11" s="5" t="n">
-        <v>0.6613199357763483</v>
+        <v>0.254572437725632</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>0.8018737652243209</v>
+        <v>0.08669525201051893</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>0.7207278371818385</v>
+        <v>0.1755953921656833</v>
       </c>
       <c r="G11" s="5" t="n">
-        <v>0.8339451879740037</v>
+        <v>0.1119273765423459</v>
       </c>
       <c r="H11" s="5" t="n">
-        <v>0.6891687255723287</v>
+        <v>0.2418212989397289</v>
       </c>
     </row>
     <row r="12">
@@ -825,22 +825,22 @@
         </is>
       </c>
       <c r="C12" s="5" t="n">
-        <v>0.8862036309280161</v>
+        <v>0.1775612283981647</v>
       </c>
       <c r="D12" s="5" t="n">
-        <v>0.7454275622743678</v>
+        <v>0.3386800642236516</v>
       </c>
       <c r="E12" s="5" t="n">
-        <v>0.9133047479894809</v>
+        <v>0.198126234775679</v>
       </c>
       <c r="F12" s="5" t="n">
-        <v>0.8244046078343167</v>
+        <v>0.2792721628181615</v>
       </c>
       <c r="G12" s="5" t="n">
-        <v>0.888072623457654</v>
+        <v>0.1660548120259963</v>
       </c>
       <c r="H12" s="5" t="n">
-        <v>0.7581787010602711</v>
+        <v>0.3108312744276714</v>
       </c>
     </row>
     <row r="13">
@@ -855,22 +855,22 @@
         </is>
       </c>
       <c r="C13" s="5" t="n">
-        <v>0.8496722396206369</v>
+        <v>0.1503277603793631</v>
       </c>
       <c r="D13" s="5" t="n">
-        <v>0.7062770123331209</v>
+        <v>0.2937229876668792</v>
       </c>
       <c r="E13" s="5" t="n">
-        <v>0.8354742829892869</v>
+        <v>0.1645257170107131</v>
       </c>
       <c r="F13" s="5" t="n">
-        <v>0.7564056538982918</v>
+        <v>0.2435943461017081</v>
       </c>
       <c r="G13" s="5" t="n">
-        <v>0.843733953789255</v>
+        <v>0.1562660462107451</v>
       </c>
       <c r="H13" s="5" t="n">
-        <v>0.7279210296108563</v>
+        <v>0.2720789703891437</v>
       </c>
     </row>
     <row r="14">
@@ -881,22 +881,22 @@
         </is>
       </c>
       <c r="C14" s="5" t="n">
-        <v>0.8269257546698631</v>
+        <v>0.1305114462487191</v>
       </c>
       <c r="D14" s="5" t="n">
-        <v>0.674548165194459</v>
+        <v>0.2641217140925943</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>0.8087041131728409</v>
+        <v>0.1405409222429315</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>0.7315505943373736</v>
+        <v>0.2149374880658774</v>
       </c>
       <c r="G14" s="5" t="n">
-        <v>0.8279076158647609</v>
+        <v>0.1403381923524592</v>
       </c>
       <c r="H14" s="5" t="n">
-        <v>0.707196605117665</v>
+        <v>0.2526055116055708</v>
       </c>
     </row>
     <row r="15">
@@ -907,22 +907,22 @@
         </is>
       </c>
       <c r="C15" s="5" t="n">
-        <v>0.8694885537512811</v>
+        <v>0.173074245330137</v>
       </c>
       <c r="D15" s="5" t="n">
-        <v>0.7358782859074062</v>
+        <v>0.3254518348055411</v>
       </c>
       <c r="E15" s="5" t="n">
-        <v>0.8594590777570684</v>
+        <v>0.191295886827159</v>
       </c>
       <c r="F15" s="5" t="n">
-        <v>0.7850625119341226</v>
+        <v>0.2684494056626262</v>
       </c>
       <c r="G15" s="5" t="n">
-        <v>0.8596618076475406</v>
+        <v>0.172092384135239</v>
       </c>
       <c r="H15" s="5" t="n">
-        <v>0.7473944883944292</v>
+        <v>0.292803394882335</v>
       </c>
     </row>
     <row r="16">
@@ -937,22 +937,22 @@
         </is>
       </c>
       <c r="C16" s="5" t="n">
-        <v>0.8409701813877414</v>
+        <v>0.1590298186122586</v>
       </c>
       <c r="D16" s="5" t="n">
-        <v>0.6577769013851484</v>
+        <v>0.3422230986148516</v>
       </c>
       <c r="E16" s="5" t="n">
-        <v>0.8696492932444001</v>
+        <v>0.1303507067555999</v>
       </c>
       <c r="F16" s="5" t="n">
-        <v>0.7499445197687916</v>
+        <v>0.2500554802312085</v>
       </c>
       <c r="G16" s="5" t="n">
-        <v>0.8565692017099779</v>
+        <v>0.1434307982900221</v>
       </c>
       <c r="H16" s="5" t="n">
-        <v>0.7125806785683249</v>
+        <v>0.2874193214316751</v>
       </c>
     </row>
     <row r="17">
@@ -963,22 +963,22 @@
         </is>
       </c>
       <c r="C17" s="5" t="n">
-        <v>0.8086925293031321</v>
+        <v>0.1319809191494486</v>
       </c>
       <c r="D17" s="5" t="n">
-        <v>0.611081882607761</v>
+        <v>0.2982741739993567</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>0.8431860379167783</v>
+        <v>0.1069485155859689</v>
       </c>
       <c r="F17" s="5" t="n">
-        <v>0.7216855028784477</v>
+        <v>0.2235564977286578</v>
       </c>
       <c r="G17" s="5" t="n">
-        <v>0.8370252880199857</v>
+        <v>0.1262871929191663</v>
       </c>
       <c r="H17" s="5" t="n">
-        <v>0.6879418624228624</v>
+        <v>0.2642101724907053</v>
       </c>
     </row>
     <row r="18">
@@ -989,22 +989,22 @@
         </is>
       </c>
       <c r="C18" s="5" t="n">
-        <v>0.8680190808505512</v>
+        <v>0.1913074706968678</v>
       </c>
       <c r="D18" s="5" t="n">
-        <v>0.7017258260006433</v>
+        <v>0.3889181173922403</v>
       </c>
       <c r="E18" s="5" t="n">
-        <v>0.8930514844140311</v>
+        <v>0.1568139620832218</v>
       </c>
       <c r="F18" s="5" t="n">
-        <v>0.7764435022713422</v>
+        <v>0.2783144971215524</v>
       </c>
       <c r="G18" s="5" t="n">
-        <v>0.8737128070808332</v>
+        <v>0.1629747119800142</v>
       </c>
       <c r="H18" s="5" t="n">
-        <v>0.7357898275092933</v>
+        <v>0.3120581375771375</v>
       </c>
     </row>
     <row r="19">
@@ -1019,22 +1019,22 @@
         </is>
       </c>
       <c r="C19" s="5" t="n">
-        <v>0.6645546735060484</v>
+        <v>0.3354453264939516</v>
       </c>
       <c r="D19" s="5" t="n">
-        <v>0.6684680703702197</v>
+        <v>0.3315319296297803</v>
       </c>
       <c r="E19" s="5" t="n">
-        <v>0.8826053099299362</v>
+        <v>0.1173946900700638</v>
       </c>
       <c r="F19" s="5" t="n">
-        <v>0.7223053157842602</v>
+        <v>0.2776946842157398</v>
       </c>
       <c r="G19" s="5" t="n">
-        <v>0.8366632676221176</v>
+        <v>0.1633367323778824</v>
       </c>
       <c r="H19" s="5" t="n">
-        <v>0.7105361634738819</v>
+        <v>0.289463836526118</v>
       </c>
     </row>
     <row r="20">
@@ -1045,22 +1045,22 @@
         </is>
       </c>
       <c r="C20" s="5" t="n">
-        <v>0.6071912331652299</v>
+        <v>0.2752090560448843</v>
       </c>
       <c r="D20" s="5" t="n">
-        <v>0.5583089188739324</v>
+        <v>0.2436374062987249</v>
       </c>
       <c r="E20" s="5" t="n">
-        <v>0.8623760453332359</v>
+        <v>0.0985628626707399</v>
       </c>
       <c r="F20" s="5" t="n">
-        <v>0.6854693314901978</v>
+        <v>0.2481310976961237</v>
       </c>
       <c r="G20" s="5" t="n">
-        <v>0.8149332949411006</v>
+        <v>0.1445018957315511</v>
       </c>
       <c r="H20" s="5" t="n">
-        <v>0.6749970194208379</v>
+        <v>0.2581748596244557</v>
       </c>
     </row>
     <row r="21">
@@ -1071,22 +1071,22 @@
         </is>
       </c>
       <c r="C21" s="5" t="n">
-        <v>0.7247909439551156</v>
+        <v>0.3928087668347701</v>
       </c>
       <c r="D21" s="5" t="n">
-        <v>0.7563625937012752</v>
+        <v>0.4416910811260672</v>
       </c>
       <c r="E21" s="5" t="n">
-        <v>0.9014371373292601</v>
+        <v>0.1376239546667646</v>
       </c>
       <c r="F21" s="5" t="n">
-        <v>0.7518689023038764</v>
+        <v>0.314530668509802</v>
       </c>
       <c r="G21" s="5" t="n">
-        <v>0.8554981042684491</v>
+        <v>0.1850667050588996</v>
       </c>
       <c r="H21" s="5" t="n">
-        <v>0.7418251403755443</v>
+        <v>0.325002980579162</v>
       </c>
     </row>
     <row r="22">
@@ -1101,22 +1101,22 @@
         </is>
       </c>
       <c r="C22" s="5" t="n">
-        <v>0.8439162436404946</v>
+        <v>0.1560837563595054</v>
       </c>
       <c r="D22" s="5" t="n">
-        <v>0.713953448075662</v>
+        <v>0.2860465519243383</v>
       </c>
       <c r="E22" s="5" t="n">
-        <v>0.8668147432116309</v>
+        <v>0.1331852567883691</v>
       </c>
       <c r="F22" s="5" t="n">
-        <v>0.7627336947666822</v>
+        <v>0.237266305233318</v>
       </c>
       <c r="G22" s="5" t="n">
-        <v>0.8556101527634032</v>
+        <v>0.1443898472365968</v>
       </c>
       <c r="H22" s="5" t="n">
-        <v>0.7390084091532433</v>
+        <v>0.2609915908467566</v>
       </c>
     </row>
     <row r="23">
@@ -1127,22 +1127,22 @@
         </is>
       </c>
       <c r="C23" s="5" t="n">
-        <v>0.8313945861532743</v>
+        <v>0.1433264372159558</v>
       </c>
       <c r="D23" s="5" t="n">
-        <v>0.6960148001582859</v>
+        <v>0.2705771278814174</v>
       </c>
       <c r="E23" s="5" t="n">
-        <v>0.8547416269219168</v>
+        <v>0.1227457247368069</v>
       </c>
       <c r="F23" s="5" t="n">
-        <v>0.7484915492775958</v>
+        <v>0.2245695581289093</v>
       </c>
       <c r="G23" s="5" t="n">
-        <v>0.8471504364226872</v>
+        <v>0.1350399348716724</v>
       </c>
       <c r="H23" s="5" t="n">
-        <v>0.727824519046548</v>
+        <v>0.2502550709742788</v>
       </c>
     </row>
     <row r="24">
@@ -1153,22 +1153,22 @@
         </is>
       </c>
       <c r="C24" s="5" t="n">
-        <v>0.8566735627840443</v>
+        <v>0.1686054138467257</v>
       </c>
       <c r="D24" s="5" t="n">
-        <v>0.7294228721185826</v>
+        <v>0.303985199841714</v>
       </c>
       <c r="E24" s="5" t="n">
-        <v>0.8772542752631933</v>
+        <v>0.1452583730780835</v>
       </c>
       <c r="F24" s="5" t="n">
-        <v>0.7754304418710909</v>
+        <v>0.2515084507224044</v>
       </c>
       <c r="G24" s="5" t="n">
-        <v>0.8649600651283276</v>
+        <v>0.1528495635773127</v>
       </c>
       <c r="H24" s="5" t="n">
-        <v>0.7497449290257211</v>
+        <v>0.2721754809534521</v>
       </c>
     </row>
     <row r="25">
@@ -1305,22 +1305,22 @@
         </is>
       </c>
       <c r="C4" s="6" t="n">
-        <v>353</v>
+        <v>39</v>
       </c>
       <c r="D4" s="6" t="n">
-        <v>439</v>
+        <v>115</v>
       </c>
       <c r="E4" s="6" t="n">
-        <v>293</v>
+        <v>38</v>
       </c>
       <c r="F4" s="6" t="n">
-        <v>579</v>
+        <v>104</v>
       </c>
       <c r="G4" s="6" t="n">
-        <v>646</v>
+        <v>77</v>
       </c>
       <c r="H4" s="6" t="n">
-        <v>1018</v>
+        <v>219</v>
       </c>
     </row>
     <row r="5">
@@ -1331,22 +1331,22 @@
         </is>
       </c>
       <c r="C5" s="6" t="n">
-        <v>384652</v>
+        <v>40303</v>
       </c>
       <c r="D5" s="6" t="n">
-        <v>435141</v>
+        <v>115477</v>
       </c>
       <c r="E5" s="6" t="n">
-        <v>308594</v>
+        <v>37217</v>
       </c>
       <c r="F5" s="6" t="n">
-        <v>408380</v>
+        <v>77954</v>
       </c>
       <c r="G5" s="6" t="n">
-        <v>693247</v>
+        <v>77520</v>
       </c>
       <c r="H5" s="6" t="n">
-        <v>843520</v>
+        <v>193432</v>
       </c>
     </row>
     <row r="6">
@@ -1357,22 +1357,22 @@
         </is>
       </c>
       <c r="C6" s="6" t="n">
-        <v>370519</v>
+        <v>30007</v>
       </c>
       <c r="D6" s="6" t="n">
-        <v>414360</v>
+        <v>97085</v>
       </c>
       <c r="E6" s="6" t="n">
-        <v>296429</v>
+        <v>26268</v>
       </c>
       <c r="F6" s="6" t="n">
-        <v>393118</v>
+        <v>64528</v>
       </c>
       <c r="G6" s="6" t="n">
-        <v>676628</v>
+        <v>62881</v>
       </c>
       <c r="H6" s="6" t="n">
-        <v>817741</v>
+        <v>169813</v>
       </c>
     </row>
     <row r="7">
@@ -1383,22 +1383,22 @@
         </is>
       </c>
       <c r="C7" s="6" t="n">
-        <v>394948</v>
+        <v>54436</v>
       </c>
       <c r="D7" s="6" t="n">
-        <v>453533</v>
+        <v>136258</v>
       </c>
       <c r="E7" s="6" t="n">
-        <v>319543</v>
+        <v>49382</v>
       </c>
       <c r="F7" s="6" t="n">
-        <v>421806</v>
+        <v>93216</v>
       </c>
       <c r="G7" s="6" t="n">
-        <v>707886</v>
+        <v>94139</v>
       </c>
       <c r="H7" s="6" t="n">
-        <v>867139</v>
+        <v>219211</v>
       </c>
     </row>
     <row r="8">
@@ -1413,22 +1413,22 @@
         </is>
       </c>
       <c r="C8" s="6" t="n">
-        <v>308</v>
+        <v>44</v>
       </c>
       <c r="D8" s="6" t="n">
-        <v>359</v>
+        <v>122</v>
       </c>
       <c r="E8" s="6" t="n">
-        <v>299</v>
+        <v>52</v>
       </c>
       <c r="F8" s="6" t="n">
-        <v>479</v>
+        <v>111</v>
       </c>
       <c r="G8" s="6" t="n">
-        <v>607</v>
+        <v>96</v>
       </c>
       <c r="H8" s="6" t="n">
-        <v>838</v>
+        <v>233</v>
       </c>
     </row>
     <row r="9">
@@ -1439,22 +1439,22 @@
         </is>
       </c>
       <c r="C9" s="6" t="n">
-        <v>329540</v>
+        <v>45709</v>
       </c>
       <c r="D9" s="6" t="n">
-        <v>359113</v>
+        <v>124099</v>
       </c>
       <c r="E9" s="6" t="n">
-        <v>320079</v>
+        <v>51082</v>
       </c>
       <c r="F9" s="6" t="n">
-        <v>333315</v>
+        <v>89828</v>
       </c>
       <c r="G9" s="6" t="n">
-        <v>649620</v>
+        <v>96791</v>
       </c>
       <c r="H9" s="6" t="n">
-        <v>692427</v>
+        <v>213928</v>
       </c>
     </row>
     <row r="10">
@@ -1465,22 +1465,22 @@
         </is>
       </c>
       <c r="C10" s="6" t="n">
-        <v>315358</v>
+        <v>34515</v>
       </c>
       <c r="D10" s="6" t="n">
-        <v>337414</v>
+        <v>105199</v>
       </c>
       <c r="E10" s="6" t="n">
-        <v>305215</v>
+        <v>39895</v>
       </c>
       <c r="F10" s="6" t="n">
-        <v>316069</v>
+        <v>74107</v>
       </c>
       <c r="G10" s="6" t="n">
-        <v>629839</v>
+        <v>78717</v>
       </c>
       <c r="H10" s="6" t="n">
-        <v>666564</v>
+        <v>189690</v>
       </c>
     </row>
     <row r="11">
@@ -1491,22 +1491,22 @@
         </is>
       </c>
       <c r="C11" s="6" t="n">
-        <v>340734</v>
+        <v>59891</v>
       </c>
       <c r="D11" s="6" t="n">
-        <v>378013</v>
+        <v>145798</v>
       </c>
       <c r="E11" s="6" t="n">
-        <v>331266</v>
+        <v>65946</v>
       </c>
       <c r="F11" s="6" t="n">
-        <v>349036</v>
+        <v>107074</v>
       </c>
       <c r="G11" s="6" t="n">
-        <v>667694</v>
+        <v>116572</v>
       </c>
       <c r="H11" s="6" t="n">
-        <v>716665</v>
+        <v>239791</v>
       </c>
     </row>
     <row r="12">
@@ -1521,22 +1521,22 @@
         </is>
       </c>
       <c r="C12" s="6" t="n">
-        <v>426</v>
+        <v>70</v>
       </c>
       <c r="D12" s="6" t="n">
-        <v>346</v>
+        <v>141</v>
       </c>
       <c r="E12" s="6" t="n">
-        <v>132</v>
+        <v>21</v>
       </c>
       <c r="F12" s="6" t="n">
-        <v>228</v>
+        <v>61</v>
       </c>
       <c r="G12" s="6" t="n">
-        <v>558</v>
+        <v>91</v>
       </c>
       <c r="H12" s="6" t="n">
-        <v>574</v>
+        <v>202</v>
       </c>
     </row>
     <row r="13">
@@ -1547,22 +1547,22 @@
         </is>
       </c>
       <c r="C13" s="6" t="n">
-        <v>442359</v>
+        <v>72988</v>
       </c>
       <c r="D13" s="6" t="n">
-        <v>331154</v>
+        <v>139593</v>
       </c>
       <c r="E13" s="6" t="n">
-        <v>143681</v>
+        <v>22442</v>
       </c>
       <c r="F13" s="6" t="n">
-        <v>145166</v>
+        <v>42331</v>
       </c>
       <c r="G13" s="6" t="n">
-        <v>586041</v>
+        <v>95429</v>
       </c>
       <c r="H13" s="6" t="n">
-        <v>476320</v>
+        <v>181924</v>
       </c>
     </row>
     <row r="14">
@@ -1573,22 +1573,22 @@
         </is>
       </c>
       <c r="C14" s="6" t="n">
-        <v>423841</v>
+        <v>58645</v>
       </c>
       <c r="D14" s="6" t="n">
-        <v>311314</v>
+        <v>119839</v>
       </c>
       <c r="E14" s="6" t="n">
-        <v>133210</v>
+        <v>14402</v>
       </c>
       <c r="F14" s="6" t="n">
-        <v>135134</v>
+        <v>32924</v>
       </c>
       <c r="G14" s="6" t="n">
-        <v>568309</v>
+        <v>76275</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>453641</v>
+        <v>159177</v>
       </c>
     </row>
     <row r="15">
@@ -1599,22 +1599,22 @@
         </is>
       </c>
       <c r="C15" s="6" t="n">
-        <v>456702</v>
+        <v>91506</v>
       </c>
       <c r="D15" s="6" t="n">
-        <v>350908</v>
+        <v>159433</v>
       </c>
       <c r="E15" s="6" t="n">
-        <v>151721</v>
+        <v>32913</v>
       </c>
       <c r="F15" s="6" t="n">
-        <v>154573</v>
+        <v>52363</v>
       </c>
       <c r="G15" s="6" t="n">
-        <v>605195</v>
+        <v>113161</v>
       </c>
       <c r="H15" s="6" t="n">
-        <v>499067</v>
+        <v>204603</v>
       </c>
     </row>
     <row r="16">
@@ -1629,22 +1629,22 @@
         </is>
       </c>
       <c r="C16" s="6" t="n">
-        <v>937</v>
+        <v>162</v>
       </c>
       <c r="D16" s="6" t="n">
-        <v>819</v>
+        <v>298</v>
       </c>
       <c r="E16" s="6" t="n">
-        <v>664</v>
+        <v>132</v>
       </c>
       <c r="F16" s="6" t="n">
-        <v>971</v>
+        <v>256</v>
       </c>
       <c r="G16" s="6" t="n">
-        <v>1601</v>
+        <v>294</v>
       </c>
       <c r="H16" s="6" t="n">
-        <v>1790</v>
+        <v>554</v>
       </c>
     </row>
     <row r="17">
@@ -1655,22 +1655,22 @@
         </is>
       </c>
       <c r="C17" s="6" t="n">
-        <v>973505</v>
+        <v>172237</v>
       </c>
       <c r="D17" s="6" t="n">
-        <v>798637</v>
+        <v>332133</v>
       </c>
       <c r="E17" s="6" t="n">
-        <v>688206</v>
+        <v>135525</v>
       </c>
       <c r="F17" s="6" t="n">
-        <v>649915</v>
+        <v>209300</v>
       </c>
       <c r="G17" s="6" t="n">
-        <v>1661711</v>
+        <v>307762</v>
       </c>
       <c r="H17" s="6" t="n">
-        <v>1448552</v>
+        <v>541433</v>
       </c>
     </row>
     <row r="18">
@@ -1681,22 +1681,22 @@
         </is>
       </c>
       <c r="C18" s="6" t="n">
-        <v>947444</v>
+        <v>149532</v>
       </c>
       <c r="D18" s="6" t="n">
-        <v>762759</v>
+        <v>298661</v>
       </c>
       <c r="E18" s="6" t="n">
-        <v>666155</v>
+        <v>115768</v>
       </c>
       <c r="F18" s="6" t="n">
-        <v>628559</v>
+        <v>184678</v>
       </c>
       <c r="G18" s="6" t="n">
-        <v>1630542</v>
+        <v>276392</v>
       </c>
       <c r="H18" s="6" t="n">
-        <v>1407311</v>
+        <v>502681</v>
       </c>
     </row>
     <row r="19">
@@ -1707,22 +1707,22 @@
         </is>
       </c>
       <c r="C19" s="6" t="n">
-        <v>996210</v>
+        <v>198298</v>
       </c>
       <c r="D19" s="6" t="n">
-        <v>832109</v>
+        <v>368011</v>
       </c>
       <c r="E19" s="6" t="n">
-        <v>707963</v>
+        <v>157576</v>
       </c>
       <c r="F19" s="6" t="n">
-        <v>674537</v>
+        <v>230656</v>
       </c>
       <c r="G19" s="6" t="n">
-        <v>1693081</v>
+        <v>338931</v>
       </c>
       <c r="H19" s="6" t="n">
-        <v>1487304</v>
+        <v>582674</v>
       </c>
     </row>
     <row r="20">
@@ -1737,22 +1737,22 @@
         </is>
       </c>
       <c r="C20" s="6" t="n">
-        <v>502</v>
+        <v>91</v>
       </c>
       <c r="D20" s="6" t="n">
-        <v>376</v>
+        <v>169</v>
       </c>
       <c r="E20" s="6" t="n">
-        <v>602</v>
+        <v>94</v>
       </c>
       <c r="F20" s="6" t="n">
-        <v>1002</v>
+        <v>287</v>
       </c>
       <c r="G20" s="6" t="n">
-        <v>1104</v>
+        <v>185</v>
       </c>
       <c r="H20" s="6" t="n">
-        <v>1378</v>
+        <v>456</v>
       </c>
     </row>
     <row r="21">
@@ -1763,22 +1763,22 @@
         </is>
       </c>
       <c r="C21" s="6" t="n">
-        <v>518198</v>
+        <v>97993</v>
       </c>
       <c r="D21" s="6" t="n">
-        <v>372266</v>
+        <v>193679</v>
       </c>
       <c r="E21" s="6" t="n">
-        <v>639067</v>
+        <v>95789</v>
       </c>
       <c r="F21" s="6" t="n">
-        <v>622533</v>
+        <v>207573</v>
       </c>
       <c r="G21" s="6" t="n">
-        <v>1157265</v>
+        <v>193782</v>
       </c>
       <c r="H21" s="6" t="n">
-        <v>994799</v>
+        <v>401252</v>
       </c>
     </row>
     <row r="22">
@@ -1789,22 +1789,22 @@
         </is>
       </c>
       <c r="C22" s="6" t="n">
-        <v>498309</v>
+        <v>81325</v>
       </c>
       <c r="D22" s="6" t="n">
-        <v>345839</v>
+        <v>168807</v>
       </c>
       <c r="E22" s="6" t="n">
-        <v>619620</v>
+        <v>78592</v>
       </c>
       <c r="F22" s="6" t="n">
-        <v>599075</v>
+        <v>185576</v>
       </c>
       <c r="G22" s="6" t="n">
-        <v>1130861</v>
+        <v>170620</v>
       </c>
       <c r="H22" s="6" t="n">
-        <v>960402</v>
+        <v>368851</v>
       </c>
     </row>
     <row r="23">
@@ -1815,22 +1815,22 @@
         </is>
       </c>
       <c r="C23" s="6" t="n">
-        <v>534866</v>
+        <v>117882</v>
       </c>
       <c r="D23" s="6" t="n">
-        <v>397138</v>
+        <v>220106</v>
       </c>
       <c r="E23" s="6" t="n">
-        <v>656264</v>
+        <v>115236</v>
       </c>
       <c r="F23" s="6" t="n">
-        <v>644530</v>
+        <v>231031</v>
       </c>
       <c r="G23" s="6" t="n">
-        <v>1180427</v>
+        <v>220186</v>
       </c>
       <c r="H23" s="6" t="n">
-        <v>1027200</v>
+        <v>435649</v>
       </c>
     </row>
     <row r="24">
@@ -1845,22 +1845,22 @@
         </is>
       </c>
       <c r="C24" s="6" t="n">
-        <v>180</v>
+        <v>90</v>
       </c>
       <c r="D24" s="6" t="n">
-        <v>73</v>
+        <v>38</v>
       </c>
       <c r="E24" s="6" t="n">
-        <v>858</v>
+        <v>123</v>
       </c>
       <c r="F24" s="6" t="n">
-        <v>886</v>
+        <v>272</v>
       </c>
       <c r="G24" s="6" t="n">
-        <v>1038</v>
+        <v>213</v>
       </c>
       <c r="H24" s="6" t="n">
-        <v>959</v>
+        <v>310</v>
       </c>
     </row>
     <row r="25">
@@ -1871,22 +1871,22 @@
         </is>
       </c>
       <c r="C25" s="6" t="n">
-        <v>189393</v>
+        <v>95599</v>
       </c>
       <c r="D25" s="6" t="n">
-        <v>157778</v>
+        <v>78251</v>
       </c>
       <c r="E25" s="6" t="n">
-        <v>942305</v>
+        <v>125335</v>
       </c>
       <c r="F25" s="6" t="n">
-        <v>609387</v>
+        <v>234283</v>
       </c>
       <c r="G25" s="6" t="n">
-        <v>1131697</v>
+        <v>220934</v>
       </c>
       <c r="H25" s="6" t="n">
-        <v>767165</v>
+        <v>312534</v>
       </c>
     </row>
     <row r="26">
@@ -1897,22 +1897,22 @@
         </is>
       </c>
       <c r="C26" s="6" t="n">
-        <v>173045</v>
+        <v>78432</v>
       </c>
       <c r="D26" s="6" t="n">
-        <v>131777</v>
+        <v>57505</v>
       </c>
       <c r="E26" s="6" t="n">
-        <v>920707</v>
+        <v>105230</v>
       </c>
       <c r="F26" s="6" t="n">
-        <v>578310</v>
+        <v>209341</v>
       </c>
       <c r="G26" s="6" t="n">
-        <v>1102304</v>
+        <v>195458</v>
       </c>
       <c r="H26" s="6" t="n">
-        <v>728794</v>
+        <v>278751</v>
       </c>
     </row>
     <row r="27">
@@ -1923,22 +1923,22 @@
         </is>
       </c>
       <c r="C27" s="6" t="n">
-        <v>206560</v>
+        <v>111947</v>
       </c>
       <c r="D27" s="6" t="n">
-        <v>178524</v>
+        <v>104252</v>
       </c>
       <c r="E27" s="6" t="n">
-        <v>962410</v>
+        <v>146933</v>
       </c>
       <c r="F27" s="6" t="n">
-        <v>634329</v>
+        <v>265360</v>
       </c>
       <c r="G27" s="6" t="n">
-        <v>1157173</v>
+        <v>250327</v>
       </c>
       <c r="H27" s="6" t="n">
-        <v>800948</v>
+        <v>350905</v>
       </c>
     </row>
     <row r="28">
@@ -1953,22 +1953,22 @@
         </is>
       </c>
       <c r="C28" s="6" t="n">
-        <v>2706</v>
+        <v>496</v>
       </c>
       <c r="D28" s="6" t="n">
-        <v>2412</v>
+        <v>883</v>
       </c>
       <c r="E28" s="6" t="n">
-        <v>2848</v>
+        <v>460</v>
       </c>
       <c r="F28" s="6" t="n">
-        <v>4145</v>
+        <v>1091</v>
       </c>
       <c r="G28" s="6" t="n">
-        <v>5554</v>
+        <v>956</v>
       </c>
       <c r="H28" s="6" t="n">
-        <v>6557</v>
+        <v>1974</v>
       </c>
     </row>
     <row r="29">
@@ -1979,22 +1979,22 @@
         </is>
       </c>
       <c r="C29" s="6" t="n">
-        <v>2837649</v>
+        <v>524828</v>
       </c>
       <c r="D29" s="6" t="n">
-        <v>2454087</v>
+        <v>983234</v>
       </c>
       <c r="E29" s="6" t="n">
-        <v>3041931</v>
+        <v>467390</v>
       </c>
       <c r="F29" s="6" t="n">
-        <v>2768697</v>
+        <v>861268</v>
       </c>
       <c r="G29" s="6" t="n">
-        <v>5879581</v>
+        <v>992218</v>
       </c>
       <c r="H29" s="6" t="n">
-        <v>5222784</v>
+        <v>1844502</v>
       </c>
     </row>
     <row r="30">
@@ -2005,22 +2005,22 @@
         </is>
       </c>
       <c r="C30" s="6" t="n">
-        <v>2795545</v>
+        <v>481932</v>
       </c>
       <c r="D30" s="6" t="n">
-        <v>2392426</v>
+        <v>930060</v>
       </c>
       <c r="E30" s="6" t="n">
-        <v>2999563</v>
+        <v>430754</v>
       </c>
       <c r="F30" s="6" t="n">
-        <v>2716998</v>
+        <v>815180</v>
       </c>
       <c r="G30" s="6" t="n">
-        <v>5821448</v>
+        <v>927967</v>
       </c>
       <c r="H30" s="6" t="n">
-        <v>5143744</v>
+        <v>1768624</v>
       </c>
     </row>
     <row r="31">
@@ -2031,22 +2031,22 @@
         </is>
       </c>
       <c r="C31" s="6" t="n">
-        <v>2880545</v>
+        <v>566932</v>
       </c>
       <c r="D31" s="6" t="n">
-        <v>2507261</v>
+        <v>1044895</v>
       </c>
       <c r="E31" s="6" t="n">
-        <v>3078567</v>
+        <v>509758</v>
       </c>
       <c r="F31" s="6" t="n">
-        <v>2814785</v>
+        <v>912967</v>
       </c>
       <c r="G31" s="6" t="n">
-        <v>5943832</v>
+        <v>1050351</v>
       </c>
       <c r="H31" s="6" t="n">
-        <v>5298662</v>
+        <v>1923542</v>
       </c>
     </row>
     <row r="32">

--- a/data/trans_dic/P36BPD07_R-Clase-trans_dic.xlsx
+++ b/data/trans_dic/P36BPD07_R-Clase-trans_dic.xlsx
@@ -530,7 +530,7 @@
     <row r="1">
       <c r="A1" s="1" t="inlineStr">
         <is>
-          <t>Población que consume menos de una bebida azucarada por día (tasa de respuesta: 99,64%)</t>
+          <t>Población que consume al menos una bebida azucarada por día (tasa de respuesta: 99,64%)</t>
         </is>
       </c>
       <c r="B1" s="2" t="n"/>
@@ -1226,7 +1226,7 @@
     <row r="1">
       <c r="A1" s="1" t="inlineStr">
         <is>
-          <t>Población que consume menos de una bebida azucarada por día (tasa de respuesta: 99,64%)</t>
+          <t>Población que consume al menos una bebida azucarada por día (tasa de respuesta: 99,64%)</t>
         </is>
       </c>
       <c r="B1" s="2" t="n"/>

--- a/data/trans_dic/P36BPD07_R-Clase-trans_dic.xlsx
+++ b/data/trans_dic/P36BPD07_R-Clase-trans_dic.xlsx
@@ -635,22 +635,22 @@
         </is>
       </c>
       <c r="C5" s="5" t="n">
-        <v>0.07061203610083817</v>
+        <v>0.07133684544882049</v>
       </c>
       <c r="D5" s="5" t="n">
-        <v>0.1763197705304865</v>
+        <v>0.1761135386618389</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>0.07595916716836472</v>
+        <v>0.07951606471632339</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>0.1326817213220112</v>
+        <v>0.1322785174375862</v>
       </c>
       <c r="G5" s="5" t="n">
-        <v>0.08158209769937645</v>
+        <v>0.08054046725075005</v>
       </c>
       <c r="H5" s="5" t="n">
-        <v>0.1637614445848836</v>
+        <v>0.1642157121259351</v>
       </c>
     </row>
     <row r="6">
@@ -661,22 +661,22 @@
         </is>
       </c>
       <c r="C6" s="5" t="n">
-        <v>0.1280979418908854</v>
+        <v>0.1281279535242543</v>
       </c>
       <c r="D6" s="5" t="n">
-        <v>0.2474632289544282</v>
+        <v>0.2506090540855728</v>
       </c>
       <c r="E6" s="5" t="n">
-        <v>0.1428012676197916</v>
+        <v>0.1454275264231244</v>
       </c>
       <c r="F6" s="5" t="n">
-        <v>0.1916712034619208</v>
+        <v>0.1892781898245474</v>
       </c>
       <c r="G6" s="5" t="n">
-        <v>0.1221370879238423</v>
+        <v>0.123239879233426</v>
       </c>
       <c r="H6" s="5" t="n">
-        <v>0.211398968753352</v>
+        <v>0.2101266263931504</v>
       </c>
     </row>
     <row r="7">
@@ -717,22 +717,22 @@
         </is>
       </c>
       <c r="C8" s="5" t="n">
-        <v>0.09197781619642026</v>
+        <v>0.09132086069793445</v>
       </c>
       <c r="D8" s="5" t="n">
-        <v>0.2177087552863247</v>
+        <v>0.2186582402177904</v>
       </c>
       <c r="E8" s="5" t="n">
-        <v>0.107486795151628</v>
+        <v>0.1082647688984969</v>
       </c>
       <c r="F8" s="5" t="n">
-        <v>0.1751351921293536</v>
+        <v>0.1815921248187403</v>
       </c>
       <c r="G8" s="5" t="n">
-        <v>0.1054606956792465</v>
+        <v>0.1091589933136278</v>
       </c>
       <c r="H8" s="5" t="n">
-        <v>0.2092888903070425</v>
+        <v>0.2072226756356751</v>
       </c>
     </row>
     <row r="9">
@@ -743,22 +743,22 @@
         </is>
       </c>
       <c r="C9" s="5" t="n">
-        <v>0.1596043334188462</v>
+        <v>0.161189438895177</v>
       </c>
       <c r="D9" s="5" t="n">
-        <v>0.3017270547622648</v>
+        <v>0.3043075664623457</v>
       </c>
       <c r="E9" s="5" t="n">
-        <v>0.1776737042924236</v>
+        <v>0.1754401300444567</v>
       </c>
       <c r="F9" s="5" t="n">
-        <v>0.2530433792810332</v>
+        <v>0.25091699677059</v>
       </c>
       <c r="G9" s="5" t="n">
-        <v>0.1561769056681113</v>
+        <v>0.1545527235288828</v>
       </c>
       <c r="H9" s="5" t="n">
-        <v>0.2645658097640465</v>
+        <v>0.2624581019862259</v>
       </c>
     </row>
     <row r="10">
@@ -799,22 +799,22 @@
         </is>
       </c>
       <c r="C11" s="5" t="n">
-        <v>0.1137963690719839</v>
+        <v>0.1108741809623714</v>
       </c>
       <c r="D11" s="5" t="n">
-        <v>0.254572437725632</v>
+        <v>0.2531760460219646</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>0.08669525201051893</v>
+        <v>0.08860337953961718</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>0.1755953921656833</v>
+        <v>0.1842653228270098</v>
       </c>
       <c r="G11" s="5" t="n">
-        <v>0.1119273765423459</v>
+        <v>0.1133699838214349</v>
       </c>
       <c r="H11" s="5" t="n">
-        <v>0.2418212989397289</v>
+        <v>0.2439895704668163</v>
       </c>
     </row>
     <row r="12">
@@ -825,22 +825,22 @@
         </is>
       </c>
       <c r="C12" s="5" t="n">
-        <v>0.1775612283981647</v>
+        <v>0.1713460951364113</v>
       </c>
       <c r="D12" s="5" t="n">
-        <v>0.3386800642236516</v>
+        <v>0.3426935584229892</v>
       </c>
       <c r="E12" s="5" t="n">
-        <v>0.198126234775679</v>
+        <v>0.1980309176928635</v>
       </c>
       <c r="F12" s="5" t="n">
-        <v>0.2792721628181615</v>
+        <v>0.284535434804613</v>
       </c>
       <c r="G12" s="5" t="n">
-        <v>0.1660548120259963</v>
+        <v>0.1681230369103315</v>
       </c>
       <c r="H12" s="5" t="n">
-        <v>0.3108312744276714</v>
+        <v>0.3122470125729968</v>
       </c>
     </row>
     <row r="13">
@@ -864,13 +864,13 @@
         <v>0.1645257170107131</v>
       </c>
       <c r="F13" s="5" t="n">
-        <v>0.2435943461017081</v>
+        <v>0.2435943461017082</v>
       </c>
       <c r="G13" s="5" t="n">
         <v>0.1562660462107451</v>
       </c>
       <c r="H13" s="5" t="n">
-        <v>0.2720789703891437</v>
+        <v>0.2720789703891438</v>
       </c>
     </row>
     <row r="14">
@@ -881,22 +881,22 @@
         </is>
       </c>
       <c r="C14" s="5" t="n">
-        <v>0.1305114462487191</v>
+        <v>0.1289691898689561</v>
       </c>
       <c r="D14" s="5" t="n">
-        <v>0.2641217140925943</v>
+        <v>0.2658240221887013</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>0.1405409222429315</v>
+        <v>0.1408186527564342</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>0.2149374880658774</v>
+        <v>0.2180291473692366</v>
       </c>
       <c r="G14" s="5" t="n">
-        <v>0.1403381923524592</v>
+        <v>0.1397478477853776</v>
       </c>
       <c r="H14" s="5" t="n">
-        <v>0.2526055116055708</v>
+        <v>0.251710176403747</v>
       </c>
     </row>
     <row r="15">
@@ -907,22 +907,22 @@
         </is>
       </c>
       <c r="C15" s="5" t="n">
-        <v>0.173074245330137</v>
+        <v>0.1719924057190737</v>
       </c>
       <c r="D15" s="5" t="n">
-        <v>0.3254518348055411</v>
+        <v>0.3254835505712408</v>
       </c>
       <c r="E15" s="5" t="n">
-        <v>0.191295886827159</v>
+        <v>0.1909246426592421</v>
       </c>
       <c r="F15" s="5" t="n">
-        <v>0.2684494056626262</v>
+        <v>0.2709725510266365</v>
       </c>
       <c r="G15" s="5" t="n">
-        <v>0.172092384135239</v>
+        <v>0.1727312575525858</v>
       </c>
       <c r="H15" s="5" t="n">
-        <v>0.292803394882335</v>
+        <v>0.2918880251828329</v>
       </c>
     </row>
     <row r="16">
@@ -963,22 +963,22 @@
         </is>
       </c>
       <c r="C17" s="5" t="n">
-        <v>0.1319809191494486</v>
+        <v>0.1304963075183374</v>
       </c>
       <c r="D17" s="5" t="n">
-        <v>0.2982741739993567</v>
+        <v>0.2989444089019796</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>0.1069485155859689</v>
+        <v>0.1057451690011006</v>
       </c>
       <c r="F17" s="5" t="n">
-        <v>0.2235564977286578</v>
+        <v>0.2223960377944292</v>
       </c>
       <c r="G17" s="5" t="n">
-        <v>0.1262871929191663</v>
+        <v>0.1255338897317347</v>
       </c>
       <c r="H17" s="5" t="n">
-        <v>0.2642101724907053</v>
+        <v>0.2644752228864326</v>
       </c>
     </row>
     <row r="18">
@@ -989,22 +989,22 @@
         </is>
       </c>
       <c r="C18" s="5" t="n">
-        <v>0.1913074706968678</v>
+        <v>0.1940317488455638</v>
       </c>
       <c r="D18" s="5" t="n">
-        <v>0.3889181173922403</v>
+        <v>0.3866367719233662</v>
       </c>
       <c r="E18" s="5" t="n">
-        <v>0.1568139620832218</v>
+        <v>0.156259261805773</v>
       </c>
       <c r="F18" s="5" t="n">
-        <v>0.2783144971215524</v>
+        <v>0.2768125854089407</v>
       </c>
       <c r="G18" s="5" t="n">
-        <v>0.1629747119800142</v>
+        <v>0.1628995860103943</v>
       </c>
       <c r="H18" s="5" t="n">
-        <v>0.3120581375771375</v>
+        <v>0.3122956803813629</v>
       </c>
     </row>
     <row r="19">
@@ -1022,19 +1022,19 @@
         <v>0.3354453264939516</v>
       </c>
       <c r="D19" s="5" t="n">
-        <v>0.3315319296297803</v>
+        <v>0.3315319296297805</v>
       </c>
       <c r="E19" s="5" t="n">
         <v>0.1173946900700638</v>
       </c>
       <c r="F19" s="5" t="n">
-        <v>0.2776946842157398</v>
+        <v>0.2776946842157399</v>
       </c>
       <c r="G19" s="5" t="n">
         <v>0.1633367323778824</v>
       </c>
       <c r="H19" s="5" t="n">
-        <v>0.289463836526118</v>
+        <v>0.2894638365261181</v>
       </c>
     </row>
     <row r="20">
@@ -1045,22 +1045,22 @@
         </is>
       </c>
       <c r="C20" s="5" t="n">
-        <v>0.2752090560448843</v>
+        <v>0.2794262676684919</v>
       </c>
       <c r="D20" s="5" t="n">
-        <v>0.2436374062987249</v>
+        <v>0.2428989321288135</v>
       </c>
       <c r="E20" s="5" t="n">
-        <v>0.0985628626707399</v>
+        <v>0.09920723889836983</v>
       </c>
       <c r="F20" s="5" t="n">
-        <v>0.2481310976961237</v>
+        <v>0.2464602659607174</v>
       </c>
       <c r="G20" s="5" t="n">
-        <v>0.1445018957315511</v>
+        <v>0.1428095552774148</v>
       </c>
       <c r="H20" s="5" t="n">
-        <v>0.2581748596244557</v>
+        <v>0.257967374739859</v>
       </c>
     </row>
     <row r="21">
@@ -1071,22 +1071,22 @@
         </is>
       </c>
       <c r="C21" s="5" t="n">
-        <v>0.3928087668347701</v>
+        <v>0.3969487603283913</v>
       </c>
       <c r="D21" s="5" t="n">
-        <v>0.4416910811260672</v>
+        <v>0.4272877390825752</v>
       </c>
       <c r="E21" s="5" t="n">
-        <v>0.1376239546667646</v>
+        <v>0.1389111652083369</v>
       </c>
       <c r="F21" s="5" t="n">
-        <v>0.314530668509802</v>
+        <v>0.309026380101778</v>
       </c>
       <c r="G21" s="5" t="n">
-        <v>0.1850667050588996</v>
+        <v>0.1847502675142177</v>
       </c>
       <c r="H21" s="5" t="n">
-        <v>0.325002980579162</v>
+        <v>0.3210069316179747</v>
       </c>
     </row>
     <row r="22">
@@ -1104,7 +1104,7 @@
         <v>0.1560837563595054</v>
       </c>
       <c r="D22" s="5" t="n">
-        <v>0.2860465519243383</v>
+        <v>0.2860465519243382</v>
       </c>
       <c r="E22" s="5" t="n">
         <v>0.1331852567883691</v>
@@ -1127,22 +1127,22 @@
         </is>
       </c>
       <c r="C23" s="5" t="n">
-        <v>0.1433264372159558</v>
+        <v>0.1435941846906602</v>
       </c>
       <c r="D23" s="5" t="n">
-        <v>0.2705771278814174</v>
+        <v>0.2699870184850995</v>
       </c>
       <c r="E23" s="5" t="n">
-        <v>0.1227457247368069</v>
+        <v>0.123118231472031</v>
       </c>
       <c r="F23" s="5" t="n">
-        <v>0.2245695581289093</v>
+        <v>0.2232014080058397</v>
       </c>
       <c r="G23" s="5" t="n">
-        <v>0.1350399348716724</v>
+        <v>0.1352680625633267</v>
       </c>
       <c r="H23" s="5" t="n">
-        <v>0.2502550709742788</v>
+        <v>0.2501496828419506</v>
       </c>
     </row>
     <row r="24">
@@ -1153,22 +1153,22 @@
         </is>
       </c>
       <c r="C24" s="5" t="n">
-        <v>0.1686054138467257</v>
+        <v>0.16941768008897</v>
       </c>
       <c r="D24" s="5" t="n">
-        <v>0.303985199841714</v>
+        <v>0.3048762120421301</v>
       </c>
       <c r="E24" s="5" t="n">
-        <v>0.1452583730780835</v>
+        <v>0.1453325316175147</v>
       </c>
       <c r="F24" s="5" t="n">
-        <v>0.2515084507224044</v>
+        <v>0.2500227056353598</v>
       </c>
       <c r="G24" s="5" t="n">
-        <v>0.1528495635773127</v>
+        <v>0.1524350917975774</v>
       </c>
       <c r="H24" s="5" t="n">
-        <v>0.2721754809534521</v>
+        <v>0.2723660750237841</v>
       </c>
     </row>
     <row r="25">
@@ -1357,22 +1357,22 @@
         </is>
       </c>
       <c r="C6" s="6" t="n">
-        <v>30007</v>
+        <v>30315</v>
       </c>
       <c r="D6" s="6" t="n">
-        <v>97085</v>
+        <v>96971</v>
       </c>
       <c r="E6" s="6" t="n">
-        <v>26268</v>
+        <v>27498</v>
       </c>
       <c r="F6" s="6" t="n">
-        <v>64528</v>
+        <v>64332</v>
       </c>
       <c r="G6" s="6" t="n">
-        <v>62881</v>
+        <v>62078</v>
       </c>
       <c r="H6" s="6" t="n">
-        <v>169813</v>
+        <v>170284</v>
       </c>
     </row>
     <row r="7">
@@ -1383,22 +1383,22 @@
         </is>
       </c>
       <c r="C7" s="6" t="n">
-        <v>54436</v>
+        <v>54449</v>
       </c>
       <c r="D7" s="6" t="n">
-        <v>136258</v>
+        <v>137990</v>
       </c>
       <c r="E7" s="6" t="n">
-        <v>49382</v>
+        <v>50290</v>
       </c>
       <c r="F7" s="6" t="n">
-        <v>93216</v>
+        <v>92052</v>
       </c>
       <c r="G7" s="6" t="n">
-        <v>94139</v>
+        <v>94989</v>
       </c>
       <c r="H7" s="6" t="n">
-        <v>219211</v>
+        <v>217891</v>
       </c>
     </row>
     <row r="8">
@@ -1465,22 +1465,22 @@
         </is>
       </c>
       <c r="C10" s="6" t="n">
-        <v>34515</v>
+        <v>34268</v>
       </c>
       <c r="D10" s="6" t="n">
-        <v>105199</v>
+        <v>105658</v>
       </c>
       <c r="E10" s="6" t="n">
-        <v>39895</v>
+        <v>40184</v>
       </c>
       <c r="F10" s="6" t="n">
-        <v>74107</v>
+        <v>76839</v>
       </c>
       <c r="G10" s="6" t="n">
-        <v>78717</v>
+        <v>81477</v>
       </c>
       <c r="H10" s="6" t="n">
-        <v>189690</v>
+        <v>187817</v>
       </c>
     </row>
     <row r="11">
@@ -1491,22 +1491,22 @@
         </is>
       </c>
       <c r="C11" s="6" t="n">
-        <v>59891</v>
+        <v>60486</v>
       </c>
       <c r="D11" s="6" t="n">
-        <v>145798</v>
+        <v>147045</v>
       </c>
       <c r="E11" s="6" t="n">
-        <v>65946</v>
+        <v>65117</v>
       </c>
       <c r="F11" s="6" t="n">
-        <v>107074</v>
+        <v>106174</v>
       </c>
       <c r="G11" s="6" t="n">
-        <v>116572</v>
+        <v>115360</v>
       </c>
       <c r="H11" s="6" t="n">
-        <v>239791</v>
+        <v>237880</v>
       </c>
     </row>
     <row r="12">
@@ -1573,22 +1573,22 @@
         </is>
       </c>
       <c r="C14" s="6" t="n">
-        <v>58645</v>
+        <v>57139</v>
       </c>
       <c r="D14" s="6" t="n">
-        <v>119839</v>
+        <v>119182</v>
       </c>
       <c r="E14" s="6" t="n">
-        <v>14402</v>
+        <v>14719</v>
       </c>
       <c r="F14" s="6" t="n">
-        <v>32924</v>
+        <v>34549</v>
       </c>
       <c r="G14" s="6" t="n">
-        <v>76275</v>
+        <v>77258</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>159177</v>
+        <v>160605</v>
       </c>
     </row>
     <row r="15">
@@ -1599,22 +1599,22 @@
         </is>
       </c>
       <c r="C15" s="6" t="n">
-        <v>91506</v>
+        <v>88303</v>
       </c>
       <c r="D15" s="6" t="n">
-        <v>159433</v>
+        <v>161322</v>
       </c>
       <c r="E15" s="6" t="n">
-        <v>32913</v>
+        <v>32897</v>
       </c>
       <c r="F15" s="6" t="n">
-        <v>52363</v>
+        <v>53350</v>
       </c>
       <c r="G15" s="6" t="n">
-        <v>113161</v>
+        <v>114571</v>
       </c>
       <c r="H15" s="6" t="n">
-        <v>204603</v>
+        <v>205535</v>
       </c>
     </row>
     <row r="16">
@@ -1681,22 +1681,22 @@
         </is>
       </c>
       <c r="C18" s="6" t="n">
-        <v>149532</v>
+        <v>147765</v>
       </c>
       <c r="D18" s="6" t="n">
-        <v>298661</v>
+        <v>300586</v>
       </c>
       <c r="E18" s="6" t="n">
-        <v>115768</v>
+        <v>115997</v>
       </c>
       <c r="F18" s="6" t="n">
-        <v>184678</v>
+        <v>187334</v>
       </c>
       <c r="G18" s="6" t="n">
-        <v>276392</v>
+        <v>275230</v>
       </c>
       <c r="H18" s="6" t="n">
-        <v>502681</v>
+        <v>500899</v>
       </c>
     </row>
     <row r="19">
@@ -1707,22 +1707,22 @@
         </is>
       </c>
       <c r="C19" s="6" t="n">
-        <v>198298</v>
+        <v>197059</v>
       </c>
       <c r="D19" s="6" t="n">
-        <v>368011</v>
+        <v>368047</v>
       </c>
       <c r="E19" s="6" t="n">
-        <v>157576</v>
+        <v>157271</v>
       </c>
       <c r="F19" s="6" t="n">
-        <v>230656</v>
+        <v>232824</v>
       </c>
       <c r="G19" s="6" t="n">
-        <v>338931</v>
+        <v>340190</v>
       </c>
       <c r="H19" s="6" t="n">
-        <v>582674</v>
+        <v>580853</v>
       </c>
     </row>
     <row r="20">
@@ -1789,22 +1789,22 @@
         </is>
       </c>
       <c r="C22" s="6" t="n">
-        <v>81325</v>
+        <v>80411</v>
       </c>
       <c r="D22" s="6" t="n">
-        <v>168807</v>
+        <v>169186</v>
       </c>
       <c r="E22" s="6" t="n">
-        <v>78592</v>
+        <v>77707</v>
       </c>
       <c r="F22" s="6" t="n">
-        <v>185576</v>
+        <v>184612</v>
       </c>
       <c r="G22" s="6" t="n">
-        <v>170620</v>
+        <v>169602</v>
       </c>
       <c r="H22" s="6" t="n">
-        <v>368851</v>
+        <v>369221</v>
       </c>
     </row>
     <row r="23">
@@ -1815,22 +1815,22 @@
         </is>
       </c>
       <c r="C23" s="6" t="n">
-        <v>117882</v>
+        <v>119561</v>
       </c>
       <c r="D23" s="6" t="n">
-        <v>220106</v>
+        <v>218815</v>
       </c>
       <c r="E23" s="6" t="n">
-        <v>115236</v>
+        <v>114828</v>
       </c>
       <c r="F23" s="6" t="n">
-        <v>231031</v>
+        <v>229784</v>
       </c>
       <c r="G23" s="6" t="n">
-        <v>220186</v>
+        <v>220085</v>
       </c>
       <c r="H23" s="6" t="n">
-        <v>435649</v>
+        <v>435981</v>
       </c>
     </row>
     <row r="24">
@@ -1897,22 +1897,22 @@
         </is>
       </c>
       <c r="C26" s="6" t="n">
-        <v>78432</v>
+        <v>79634</v>
       </c>
       <c r="D26" s="6" t="n">
-        <v>57505</v>
+        <v>57331</v>
       </c>
       <c r="E26" s="6" t="n">
-        <v>105230</v>
+        <v>105918</v>
       </c>
       <c r="F26" s="6" t="n">
-        <v>209341</v>
+        <v>207931</v>
       </c>
       <c r="G26" s="6" t="n">
-        <v>195458</v>
+        <v>193169</v>
       </c>
       <c r="H26" s="6" t="n">
-        <v>278751</v>
+        <v>278527</v>
       </c>
     </row>
     <row r="27">
@@ -1923,22 +1923,22 @@
         </is>
       </c>
       <c r="C27" s="6" t="n">
-        <v>111947</v>
+        <v>113127</v>
       </c>
       <c r="D27" s="6" t="n">
-        <v>104252</v>
+        <v>100852</v>
       </c>
       <c r="E27" s="6" t="n">
-        <v>146933</v>
+        <v>148307</v>
       </c>
       <c r="F27" s="6" t="n">
-        <v>265360</v>
+        <v>260716</v>
       </c>
       <c r="G27" s="6" t="n">
-        <v>250327</v>
+        <v>249899</v>
       </c>
       <c r="H27" s="6" t="n">
-        <v>350905</v>
+        <v>346591</v>
       </c>
     </row>
     <row r="28">
@@ -2005,22 +2005,22 @@
         </is>
       </c>
       <c r="C30" s="6" t="n">
-        <v>481932</v>
+        <v>482832</v>
       </c>
       <c r="D30" s="6" t="n">
-        <v>930060</v>
+        <v>928032</v>
       </c>
       <c r="E30" s="6" t="n">
-        <v>430754</v>
+        <v>432061</v>
       </c>
       <c r="F30" s="6" t="n">
-        <v>815180</v>
+        <v>810213</v>
       </c>
       <c r="G30" s="6" t="n">
-        <v>927967</v>
+        <v>929535</v>
       </c>
       <c r="H30" s="6" t="n">
-        <v>1768624</v>
+        <v>1767879</v>
       </c>
     </row>
     <row r="31">
@@ -2031,22 +2031,22 @@
         </is>
       </c>
       <c r="C31" s="6" t="n">
-        <v>566932</v>
+        <v>569663</v>
       </c>
       <c r="D31" s="6" t="n">
-        <v>1044895</v>
+        <v>1047957</v>
       </c>
       <c r="E31" s="6" t="n">
-        <v>509758</v>
+        <v>510019</v>
       </c>
       <c r="F31" s="6" t="n">
-        <v>912967</v>
+        <v>907574</v>
       </c>
       <c r="G31" s="6" t="n">
-        <v>1050351</v>
+        <v>1047503</v>
       </c>
       <c r="H31" s="6" t="n">
-        <v>1923542</v>
+        <v>1924889</v>
       </c>
     </row>
     <row r="32">
